--- a/public/备件采购模板.xlsx
+++ b/public/备件采购模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>序号</t>
   </si>
@@ -65,6 +65,30 @@
   </si>
   <si>
     <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>液压油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTE-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美孚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注塑机</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -514,6 +538,44 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>4000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43804</v>
+      </c>
+      <c r="K2">
+        <v>16033</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
